--- a/biology/Médecine/Clinique_CHC_Hermalle/Clinique_CHC_Hermalle.xlsx
+++ b/biology/Médecine/Clinique_CHC_Hermalle/Clinique_CHC_Hermalle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La clinique CHC Hermalle, anciennement appelée Clinique Notre-Dame Hermalle[1], est un hôpital général appartenant au Groupe santé CHC. Son site se trouve à Hermalle-sous-Argenteau, dans la province de Liège. Erigée en 1957, elle joue un rôle d'hôpital de proximité en Basse-Meuse. Au sein du Groupe santé CHC, la Clinique CHC Hermalle est l'hôpital pour les soins palliatifs et la prise en charge de la fin de vie, avec son unité d'hospitalisation de 6 lits[2]. La clinique compte 110 lits et occupe plus de 400 personnes (membres du personnel et indépendants).
+La clinique CHC Hermalle, anciennement appelée Clinique Notre-Dame Hermalle, est un hôpital général appartenant au Groupe santé CHC. Son site se trouve à Hermalle-sous-Argenteau, dans la province de Liège. Erigée en 1957, elle joue un rôle d'hôpital de proximité en Basse-Meuse. Au sein du Groupe santé CHC, la Clinique CHC Hermalle est l'hôpital pour les soins palliatifs et la prise en charge de la fin de vie, avec son unité d'hospitalisation de 6 lits. La clinique compte 110 lits et occupe plus de 400 personnes (membres du personnel et indépendants).
 </t>
         </is>
       </c>
@@ -512,23 +524,25 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Clinique Notre-Dame a été inaugurée en 1957[3]. À son ouverture, elle se composait d'une polyclinique et de deux services : chirurgie et maternité (59 lits au total). Deux congrégations religieuses assurent la gestion de la clinique de 1958 à 1978 : les sœurs de l'Immaculée Conception et les Sœurs de l'Enfant Jésus. Sous le giron des Mutualités Chrétiennes depuis ses débuts, la Clinique Notre-Dame rejoint le réseau des cliniques Saint-Joseph (Liège) en 1996[4],[5]. En 2001, le CHC est créé. Il regroupe 6 cliniques : clinique Saint-Joseph (Liège), de l’Espérance (Montegnée), Saint-Vincent (Rocourt), Notre-Dame (Waremme), Notre-Dame (Hermalle-sous-Argenteau) et Saint-Elisabeth (Heusy). En janvier 2020, le CHC change d’appellation et devient le Groupe santé CHC. La Clinique Notre-Dame devient quant à elle Clinique CHC Hermalle.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Clinique Notre-Dame a été inaugurée en 1957. À son ouverture, elle se composait d'une polyclinique et de deux services : chirurgie et maternité (59 lits au total). Deux congrégations religieuses assurent la gestion de la clinique de 1958 à 1978 : les sœurs de l'Immaculée Conception et les Sœurs de l'Enfant Jésus. Sous le giron des Mutualités Chrétiennes depuis ses débuts, la Clinique Notre-Dame rejoint le réseau des cliniques Saint-Joseph (Liège) en 1996,. En 2001, le CHC est créé. Il regroupe 6 cliniques : clinique Saint-Joseph (Liège), de l’Espérance (Montegnée), Saint-Vincent (Rocourt), Notre-Dame (Waremme), Notre-Dame (Hermalle-sous-Argenteau) et Saint-Elisabeth (Heusy). En janvier 2020, le CHC change d’appellation et devient le Groupe santé CHC. La Clinique Notre-Dame devient quant à elle Clinique CHC Hermalle.
 La clinique au fur et à mesure des années et ouvre :
 en 1979, un service de médecine de 30 lits
 en 1986, un service de gériatrie de 24 lits
 en 1988, un service de soins intensifs de 6 lits
 en 1990, un service d'urgences agréé "100"
 en 1995, l'hôpital de jour médico-chirurgical (20 lits)
-en 1998, une unité de soins palliatifs (6 lits)[5]
-en 1999, un service de pré-hospitalisation - infos patients - gestion des lits[5]
+en 1998, une unité de soins palliatifs (6 lits)
+en 1999, un service de pré-hospitalisation - infos patients - gestion des lits
 en 2000, un centre de jour en soins palliatifs et agrandit le service de gériatrie (6 lits)
 en 2005, l'espace enfants et adolescents qui accueille les enfants dont un membre de la famille est atteint d'une pathologie grave
 en 2006, une unité de revalidation (20 lits)
 en 2010, un espace bien-être : l'espace d'Artagnan
-en 2013, un espace bien-être à destination des patients cancéreux qui remplace l'espace d'Artagnan : l’Espace+[6].
-Après 50 ans de fonctionnement, la maternité est transférée à la clinique Saint-Vincent de Rocourt en 2004[7],[8].
+en 2013, un espace bien-être à destination des patients cancéreux qui remplace l'espace d'Artagnan : l’Espace+.
+Après 50 ans de fonctionnement, la maternité est transférée à la clinique Saint-Vincent de Rocourt en 2004,.
 </t>
         </is>
       </c>
